--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.960922841907575</v>
+        <v>3.960922841907347</v>
       </c>
       <c r="C2">
-        <v>2.192559611052957</v>
+        <v>2.192559611052729</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.75842096345707</v>
+        <v>2.758420963457013</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.377062756522832</v>
+        <v>3.377062756522776</v>
       </c>
       <c r="C3">
-        <v>1.862786655293462</v>
+        <v>1.862786655293178</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.397944940611012</v>
+        <v>2.397944940611055</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.029926259672266</v>
+        <v>3.029926259672322</v>
       </c>
       <c r="C4">
-        <v>1.667690569689114</v>
+        <v>1.667690569688773</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.1447656521906</v>
+        <v>1.144765652190586</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.89079101787172</v>
+        <v>2.890791017871663</v>
       </c>
       <c r="C5">
-        <v>1.589700586857646</v>
+        <v>1.589700586857532</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.089753023645585</v>
+        <v>1.089753023645713</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.103339012170807</v>
+        <v>2.103339012170821</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.867814306044295</v>
+        <v>2.867814306044181</v>
       </c>
       <c r="C6">
-        <v>1.576832803984189</v>
+        <v>1.576832803983734</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.080689557347611</v>
+        <v>1.080689557347583</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.089555865725885</v>
+        <v>2.089555865725828</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.028041054270602</v>
+        <v>3.028041054270545</v>
       </c>
       <c r="C7">
-        <v>1.66663305617385</v>
+        <v>1.666633056173566</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.144018781058122</v>
+        <v>1.144018781058193</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>3.756902596053067</v>
       </c>
       <c r="C8">
-        <v>2.077094675979936</v>
+        <v>2.077094675979538</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.435834320780387</v>
+        <v>1.435834320780359</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.631671692653171</v>
+        <v>2.631671692653214</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.306229126683377</v>
+        <v>5.306229126683547</v>
       </c>
       <c r="C9">
-        <v>2.960075787981111</v>
+        <v>2.96007578798168</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.077282797359985</v>
+        <v>2.077282797359999</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.61315697506538</v>
+        <v>3.613156975065408</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.573153178207576</v>
+        <v>6.57315317820769</v>
       </c>
       <c r="C10">
-        <v>3.692584154310509</v>
+        <v>3.692584154310111</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.62500942734664</v>
+        <v>2.625009427346683</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.444473777322941</v>
+        <v>4.444473777323111</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.195974353870668</v>
+        <v>7.19597435387044</v>
       </c>
       <c r="C11">
-        <v>4.056172892242046</v>
+        <v>4.056172892242103</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.902744944885882</v>
+        <v>2.902744944885768</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.86140074567885</v>
+        <v>4.861400745678736</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>7.440816308129058</v>
       </c>
       <c r="C12">
-        <v>4.199744910156653</v>
+        <v>4.19974491015688</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.013574468218209</v>
+        <v>3.013574468218124</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.02668724578453</v>
+        <v>5.026687245784416</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.387638430314496</v>
+        <v>7.387638430314382</v>
       </c>
       <c r="C13">
-        <v>4.168531235794376</v>
+        <v>4.168531235794092</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.98942164694212</v>
+        <v>2.989421646942148</v>
       </c>
       <c r="F13">
-        <v>2.504295469238428</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.990723444667594</v>
+        <v>4.990723444667651</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.215920911426338</v>
+        <v>7.215920911426508</v>
       </c>
       <c r="C14">
-        <v>4.067855714588745</v>
+        <v>4.067855714588518</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.911738285538732</v>
+        <v>2.911738285538831</v>
       </c>
       <c r="F14">
-        <v>2.457142640142237</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.874837490110139</v>
+        <v>4.874837490110281</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.111994017389975</v>
+        <v>7.111994017390145</v>
       </c>
       <c r="C15">
-        <v>4.007011406787228</v>
+        <v>4.007011406787456</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.864949006646214</v>
+        <v>2.864949006646299</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063136552</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.533563938951943</v>
+        <v>6.533563938951886</v>
       </c>
       <c r="C16">
-        <v>3.66955113243273</v>
+        <v>3.669551132432957</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.418148100563599</v>
+        <v>4.41814810056357</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.192013169795132</v>
+        <v>6.192013169795246</v>
       </c>
       <c r="C17">
-        <v>3.471222666672759</v>
+        <v>3.471222666672816</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.457882516912207</v>
+        <v>2.457882516912193</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.191930535770268</v>
+        <v>4.191930535770183</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.999761733268144</v>
+        <v>5.999761733268258</v>
       </c>
       <c r="C18">
-        <v>3.359891060319512</v>
+        <v>3.359891060320535</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.374365709862161</v>
+        <v>2.374365709862175</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.065324486780185</v>
+        <v>4.065324486780128</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.935332815157267</v>
+        <v>5.935332815157153</v>
       </c>
       <c r="C19">
-        <v>3.322629379839498</v>
+        <v>3.3226293798391</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.346492045283497</v>
+        <v>2.346492045283469</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.227923158878014</v>
+        <v>6.227923158877957</v>
       </c>
       <c r="C20">
-        <v>3.492042079350824</v>
+        <v>3.492042079350483</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.473539941632851</v>
+        <v>2.473539941632936</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.215637509001397</v>
+        <v>4.21563750900134</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.266091469147398</v>
+        <v>7.266091469147796</v>
       </c>
       <c r="C21">
-        <v>4.097251544227959</v>
+        <v>4.097251544228754</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.934386518650626</v>
+        <v>2.934386518650598</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.470978708896936</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.908656844896882</v>
+        <v>4.908656844896825</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.998856198633177</v>
+        <v>7.998856198633291</v>
       </c>
       <c r="C22">
-        <v>4.52833858182413</v>
+        <v>4.528338581824471</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.269844801948466</v>
+        <v>3.269844801948381</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.406202415828574</v>
+        <v>5.406202415828602</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.601770761746081</v>
+        <v>7.601770761745911</v>
       </c>
       <c r="C23">
         <v>4.294324784184823</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.135755950296073</v>
+        <v>5.135755950296044</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.211675609453835</v>
+        <v>6.21167560945355</v>
       </c>
       <c r="C24">
-        <v>3.482621349570877</v>
+        <v>3.482621349570536</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.204908969681298</v>
+        <v>4.204908969681242</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>4.869407809826271</v>
       </c>
       <c r="C25">
-        <v>2.70969880411036</v>
+        <v>2.709698804110417</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.893411781247693</v>
+        <v>1.893411781247735</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.332219854502767</v>
+        <v>3.33221985450281</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.960922841907347</v>
+        <v>3.960922841907575</v>
       </c>
       <c r="C2">
-        <v>2.192559611052729</v>
+        <v>2.192559611052957</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.758420963457013</v>
+        <v>2.75842096345707</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.377062756522776</v>
+        <v>3.377062756522832</v>
       </c>
       <c r="C3">
-        <v>1.862786655293178</v>
+        <v>1.862786655293462</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.397944940611055</v>
+        <v>2.397944940611012</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.029926259672322</v>
+        <v>3.029926259672266</v>
       </c>
       <c r="C4">
-        <v>1.667690569688773</v>
+        <v>1.667690569689114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.144765652190586</v>
+        <v>1.1447656521906</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.890791017871663</v>
+        <v>2.89079101787172</v>
       </c>
       <c r="C5">
-        <v>1.589700586857532</v>
+        <v>1.589700586857646</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.089753023645713</v>
+        <v>1.089753023645585</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.103339012170821</v>
+        <v>2.103339012170807</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.867814306044181</v>
+        <v>2.867814306044295</v>
       </c>
       <c r="C6">
-        <v>1.576832803983734</v>
+        <v>1.576832803984189</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.080689557347583</v>
+        <v>1.080689557347611</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.089555865725828</v>
+        <v>2.089555865725885</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.028041054270545</v>
+        <v>3.028041054270602</v>
       </c>
       <c r="C7">
-        <v>1.666633056173566</v>
+        <v>1.66663305617385</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.144018781058193</v>
+        <v>1.144018781058122</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>3.756902596053067</v>
       </c>
       <c r="C8">
-        <v>2.077094675979538</v>
+        <v>2.077094675979936</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.435834320780359</v>
+        <v>1.435834320780387</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.631671692653214</v>
+        <v>2.631671692653171</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.306229126683547</v>
+        <v>5.306229126683377</v>
       </c>
       <c r="C9">
-        <v>2.96007578798168</v>
+        <v>2.960075787981111</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.077282797359999</v>
+        <v>2.077282797359985</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.613156975065408</v>
+        <v>3.61315697506538</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.57315317820769</v>
+        <v>6.573153178207576</v>
       </c>
       <c r="C10">
-        <v>3.692584154310111</v>
+        <v>3.692584154310509</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.625009427346683</v>
+        <v>2.62500942734664</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.444473777323111</v>
+        <v>4.444473777322941</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.19597435387044</v>
+        <v>7.195974353870668</v>
       </c>
       <c r="C11">
-        <v>4.056172892242103</v>
+        <v>4.056172892242046</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.902744944885768</v>
+        <v>2.902744944885882</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.861400745678736</v>
+        <v>4.86140074567885</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>7.440816308129058</v>
       </c>
       <c r="C12">
-        <v>4.19974491015688</v>
+        <v>4.199744910156653</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.013574468218124</v>
+        <v>3.013574468218209</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.026687245784416</v>
+        <v>5.02668724578453</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.387638430314382</v>
+        <v>7.387638430314496</v>
       </c>
       <c r="C13">
-        <v>4.168531235794092</v>
+        <v>4.168531235794376</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.989421646942148</v>
+        <v>2.98942164694212</v>
       </c>
       <c r="F13">
-        <v>2.504295469238414</v>
+        <v>2.504295469238428</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.990723444667651</v>
+        <v>4.990723444667594</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.215920911426508</v>
+        <v>7.215920911426338</v>
       </c>
       <c r="C14">
-        <v>4.067855714588518</v>
+        <v>4.067855714588745</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.911738285538831</v>
+        <v>2.911738285538732</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142237</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.874837490110281</v>
+        <v>4.874837490110139</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.111994017390145</v>
+        <v>7.111994017389975</v>
       </c>
       <c r="C15">
-        <v>4.007011406787456</v>
+        <v>4.007011406787228</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.864949006646299</v>
+        <v>2.864949006646214</v>
       </c>
       <c r="F15">
-        <v>2.428326063136552</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.533563938951886</v>
+        <v>6.533563938951943</v>
       </c>
       <c r="C16">
-        <v>3.669551132432957</v>
+        <v>3.66955113243273</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.41814810056357</v>
+        <v>4.418148100563599</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.192013169795246</v>
+        <v>6.192013169795132</v>
       </c>
       <c r="C17">
-        <v>3.471222666672816</v>
+        <v>3.471222666672759</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.457882516912193</v>
+        <v>2.457882516912207</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.191930535770183</v>
+        <v>4.191930535770268</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.999761733268258</v>
+        <v>5.999761733268144</v>
       </c>
       <c r="C18">
-        <v>3.359891060320535</v>
+        <v>3.359891060319512</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.374365709862175</v>
+        <v>2.374365709862161</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.065324486780128</v>
+        <v>4.065324486780185</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.935332815157153</v>
+        <v>5.935332815157267</v>
       </c>
       <c r="C19">
-        <v>3.3226293798391</v>
+        <v>3.322629379839498</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.346492045283469</v>
+        <v>2.346492045283497</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.227923158877957</v>
+        <v>6.227923158878014</v>
       </c>
       <c r="C20">
-        <v>3.492042079350483</v>
+        <v>3.492042079350824</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.473539941632936</v>
+        <v>2.473539941632851</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.21563750900134</v>
+        <v>4.215637509001397</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.266091469147796</v>
+        <v>7.266091469147398</v>
       </c>
       <c r="C21">
-        <v>4.097251544228754</v>
+        <v>4.097251544227959</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.934386518650598</v>
+        <v>2.934386518650626</v>
       </c>
       <c r="F21">
-        <v>2.470978708896936</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.908656844896825</v>
+        <v>4.908656844896882</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.998856198633291</v>
+        <v>7.998856198633177</v>
       </c>
       <c r="C22">
-        <v>4.528338581824471</v>
+        <v>4.52833858182413</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.269844801948381</v>
+        <v>3.269844801948466</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.406202415828602</v>
+        <v>5.406202415828574</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.601770761745911</v>
+        <v>7.601770761746081</v>
       </c>
       <c r="C23">
         <v>4.294324784184823</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.135755950296044</v>
+        <v>5.135755950296073</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.21167560945355</v>
+        <v>6.211675609453835</v>
       </c>
       <c r="C24">
-        <v>3.482621349570536</v>
+        <v>3.482621349570877</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.204908969681242</v>
+        <v>4.204908969681298</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>4.869407809826271</v>
       </c>
       <c r="C25">
-        <v>2.709698804110417</v>
+        <v>2.70969880411036</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.893411781247735</v>
+        <v>1.893411781247693</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.33221985450281</v>
+        <v>3.332219854502767</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.960922841907575</v>
+        <v>3.908315460720814</v>
       </c>
       <c r="C2">
-        <v>2.192559611052957</v>
+        <v>2.158640537176836</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.518630441497535</v>
+        <v>1.50680669340025</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007402810857197149</v>
       </c>
       <c r="H2">
-        <v>2.75842096345707</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.760481981193166</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.377062756522832</v>
+        <v>3.332601521059871</v>
       </c>
       <c r="C3">
-        <v>1.862786655293462</v>
+        <v>1.834222651040932</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.282988790160005</v>
+        <v>1.273363043659671</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007542262459418516</v>
       </c>
       <c r="H3">
-        <v>2.397944940611012</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.405488660539092</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.029926259672266</v>
+        <v>2.990297613040013</v>
       </c>
       <c r="C4">
-        <v>1.667690569689114</v>
+        <v>1.642288544277108</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.1447656521906</v>
+        <v>1.136360230505559</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007628392602896464</v>
       </c>
       <c r="H4">
-        <v>2.187074860246923</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.197808468143506</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.89079101787172</v>
+        <v>2.85310250299176</v>
       </c>
       <c r="C5">
-        <v>1.589700586857646</v>
+        <v>1.565564625635375</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.089753023645585</v>
+        <v>1.081819877818674</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007663702994631964</v>
       </c>
       <c r="H5">
-        <v>2.103339012170807</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.115339037232303</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.867814306044295</v>
+        <v>2.830446521364252</v>
       </c>
       <c r="C6">
-        <v>1.576832803984189</v>
+        <v>1.552905946964074</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.080689557347611</v>
+        <v>1.072833506263521</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007669581256846271</v>
       </c>
       <c r="H6">
-        <v>2.089555865725885</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.101764430829888</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.028041054270602</v>
+        <v>2.988438675594068</v>
       </c>
       <c r="C7">
-        <v>1.66663305617385</v>
+        <v>1.641248185583493</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.144018781058122</v>
+        <v>1.135619821382022</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007628867852398969</v>
       </c>
       <c r="H7">
-        <v>2.185937206882528</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.196688017008498</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.756902596053067</v>
+        <v>3.70714818408976</v>
       </c>
       <c r="C8">
-        <v>2.077094675979936</v>
+        <v>2.045054454719036</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.435834320780387</v>
+        <v>1.424800426559472</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007450844041523297</v>
       </c>
       <c r="H8">
-        <v>2.631671692653171</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.635667157572584</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.306229126683377</v>
+        <v>5.234398425882375</v>
       </c>
       <c r="C9">
-        <v>2.960075787981111</v>
+        <v>2.913414342624208</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.077282797359985</v>
+        <v>2.059574126140944</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000710101336935054</v>
       </c>
       <c r="H9">
-        <v>3.61315697506538</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.601835916293453</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.573153178207576</v>
+        <v>6.48204695864672</v>
       </c>
       <c r="C10">
-        <v>3.692584154310509</v>
+        <v>3.633028112543514</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.62500942734664</v>
+        <v>2.600411407708691</v>
       </c>
       <c r="F10">
         <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006834790969215798</v>
       </c>
       <c r="H10">
-        <v>4.444473777322941</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.419245319119113</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.195974353870668</v>
+        <v>7.094748195238878</v>
       </c>
       <c r="C11">
-        <v>4.056172892242046</v>
+        <v>3.989810163922073</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.902744944885882</v>
+        <v>2.874131737379088</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006708764315130031</v>
       </c>
       <c r="H11">
-        <v>4.86140074567885</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.82872179824642</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.440816308129058</v>
+        <v>7.335463888996912</v>
       </c>
       <c r="C12">
-        <v>4.199744910156653</v>
+        <v>4.130600715985906</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.013574468218209</v>
+        <v>2.983245483690411</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006659970837196759</v>
       </c>
       <c r="H12">
-        <v>5.02668724578453</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.99094641057053</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.387638430314496</v>
+        <v>7.283189962607992</v>
       </c>
       <c r="C13">
-        <v>4.168531235794376</v>
+        <v>4.099996669428833</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.98942164694212</v>
+        <v>2.95947243262944</v>
       </c>
       <c r="F13">
         <v>2.504295469238428</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006670534313507412</v>
       </c>
       <c r="H13">
-        <v>4.990723444667594</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.955654483376748</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.215920911426338</v>
+        <v>7.11436194874301</v>
       </c>
       <c r="C14">
-        <v>4.067855714588745</v>
+        <v>4.001268771800824</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.911738285538732</v>
+        <v>2.882988378722175</v>
       </c>
       <c r="F14">
         <v>2.457142640142237</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006704774077657845</v>
       </c>
       <c r="H14">
-        <v>4.874837490110139</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.841912070012512</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.111994017389975</v>
+        <v>7.012162768378175</v>
       </c>
       <c r="C15">
-        <v>4.007011406787228</v>
+        <v>3.94158820217973</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.864949006646214</v>
+        <v>2.83690553555671</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006725594428308799</v>
       </c>
       <c r="H15">
-        <v>4.804884794852086</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.773237952904282</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.533563938951943</v>
+        <v>6.443084509882794</v>
       </c>
       <c r="C16">
-        <v>3.66955113243273</v>
+        <v>3.610415913896759</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.607551973463075</v>
+        <v>2.583193617716702</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006842900118670497</v>
       </c>
       <c r="H16">
-        <v>4.418148100563599</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.393378085021567</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.192013169795132</v>
+        <v>6.106868541436995</v>
       </c>
       <c r="C17">
-        <v>3.471222666672759</v>
+        <v>3.415665328919829</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.457882516912207</v>
+        <v>2.435521413328829</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000691338466585228</v>
       </c>
       <c r="H17">
-        <v>4.191930535770268</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.171046842827792</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.999761733268144</v>
+        <v>5.917566396095992</v>
       </c>
       <c r="C18">
-        <v>3.359891060319512</v>
+        <v>3.306308608368226</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.374365709862161</v>
+        <v>2.353076057983927</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006953490028987694</v>
       </c>
       <c r="H18">
-        <v>4.065324486780185</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.046576675729966</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.935332815157267</v>
+        <v>5.854117857860444</v>
       </c>
       <c r="C19">
-        <v>3.322629379839498</v>
+        <v>3.269702890180781</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.346492045283497</v>
+        <v>2.325553402939121</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006967003205242262</v>
       </c>
       <c r="H19">
-        <v>4.023014879585844</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.004974962088113</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.227923158878014</v>
+        <v>6.14222352585216</v>
       </c>
       <c r="C20">
-        <v>3.492042079350824</v>
+        <v>3.436112849389872</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.473539941632851</v>
+        <v>2.45097460677998</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006905928741197192</v>
       </c>
       <c r="H20">
-        <v>4.215637509001397</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.19435084754906</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.266091469147398</v>
+        <v>7.163692844834088</v>
       </c>
       <c r="C21">
-        <v>4.097251544227959</v>
+        <v>4.030098811445896</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.934386518650626</v>
+        <v>2.905290404648809</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006694749668878756</v>
       </c>
       <c r="H21">
-        <v>4.908656844896882</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.875109191984848</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.998856198633177</v>
+        <v>7.883734005121198</v>
       </c>
       <c r="C22">
-        <v>4.52833858182413</v>
+        <v>4.452596113439427</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.269844801948466</v>
+        <v>3.235272483149771</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000655020691482988</v>
       </c>
       <c r="H22">
-        <v>5.406202415828574</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.363164007495044</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.601770761746081</v>
+        <v>7.493654903728157</v>
       </c>
       <c r="C23">
-        <v>4.294324784184823</v>
+        <v>4.22331596183551</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.086958123563463</v>
+        <v>3.055454639737192</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006628110662284634</v>
       </c>
       <c r="H23">
-        <v>5.135755950296073</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.097957493289357</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.211675609453835</v>
+        <v>6.126227254181629</v>
       </c>
       <c r="C24">
-        <v>3.482621349570877</v>
+        <v>3.426860503183889</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.466453445613865</v>
+        <v>2.443980678412473</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006909300838950961</v>
       </c>
       <c r="H24">
-        <v>4.204908969681298</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.183804791573323</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.869407809826271</v>
+        <v>4.803921822361929</v>
       </c>
       <c r="C25">
-        <v>2.70969880411036</v>
+        <v>2.667257682494551</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.893411781247693</v>
+        <v>1.877753920073928</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007196494951708932</v>
       </c>
       <c r="H25">
-        <v>3.332219854502767</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.325377103485579</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,34 +409,40 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.908315460720814</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.158640537176836</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.50680669340025</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007402810857197149</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.760481981193166</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,34 +456,40 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.332601521059871</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.834222651040932</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.273363043659671</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.0007542262459418516</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.405488660539092</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,34 +503,40 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.990297613040013</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.642288544277108</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.136360230505559</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007628392602896464</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.197808468143506</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -532,34 +550,40 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.85310250299176</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.565564625635375</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.081819877818674</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.0007663702994631964</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.115339037232303</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -573,34 +597,40 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.830446521364252</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.552905946964074</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.072833506263521</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007669581256846271</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.101764430829888</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -614,34 +644,40 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.988438675594068</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.641248185583493</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.135619821382022</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007628867852398969</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.196688017008498</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -655,34 +691,40 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.70714818408976</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.045054454719036</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.424800426559472</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.0007450844041523297</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.635667157572584</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -696,34 +738,40 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.234398425882375</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.913414342624208</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.059574126140944</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
-        <v>0.000710101336935054</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.601835916293453</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -737,34 +785,40 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.48204695864672</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.633028112543514</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.600411407708691</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0006834790969215798</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.419245319119113</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -778,34 +832,40 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.094748195238878</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3.989810163922073</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.874131737379088</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0006708764315130031</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.82872179824642</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -819,34 +879,40 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.335463888996912</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.130600715985906</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.983245483690411</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0006659970837196759</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.99094641057053</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -860,34 +926,40 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.283189962607992</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.099996669428833</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.95947243262944</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469238428</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0006670534313507412</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.955654483376748</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -901,34 +973,40 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.11436194874301</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4.001268771800824</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.882988378722175</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2.457142640142237</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0006704774077657845</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.841912070012512</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -942,34 +1020,40 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.012162768378175</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3.94158820217973</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.83690553555671</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0006725594428308799</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.773237952904282</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -983,34 +1067,40 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.443084509882794</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3.610415913896759</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.583193617716702</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0006842900118670497</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.393378085021567</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1024,34 +1114,40 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.106868541436995</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3.415665328919829</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.435521413328829</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.000691338466585228</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.171046842827792</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1065,34 +1161,40 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.917566396095992</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3.306308608368226</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.353076057983927</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0006953490028987694</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.046576675729966</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1106,34 +1208,40 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.854117857860444</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3.269702890180781</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.325553402939121</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0006967003205242262</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.004974962088113</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1147,34 +1255,40 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.14222352585216</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>3.436112849389872</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.45097460677998</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0006905928741197192</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.19435084754906</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1188,34 +1302,40 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.163692844834088</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4.030098811445896</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.905290404648809</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0006694749668878756</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.875109191984848</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1229,34 +1349,40 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.883734005121198</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4.452596113439427</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.235272483149771</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.000655020691482988</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.363164007495044</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1270,34 +1396,40 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.493654903728157</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>4.22331596183551</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.055454639737192</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0006628110662284634</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.097957493289357</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1311,34 +1443,40 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.126227254181629</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>3.426860503183889</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.443980678412473</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.0006909300838950961</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.183804791573323</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1352,34 +1490,40 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.803921822361929</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2.667257682494551</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.877753920073928</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007196494951708932</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.325377103485579</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.644721476065513</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9980118223499801</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.443440197398559</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0868258849290342</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.08307201452323909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.3104511421176142</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.17835184390384</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8811261805087156</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.239575014828944</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.07774558435832546</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.08676892637112132</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.2985054191002092</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.892219927322344</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.8094272606172979</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.116698426273658</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.07327137543590823</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.08970032956297302</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.2948810290994572</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.7756316405397</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.7802173230278413</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.067114683735284</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0717014365312636</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.09105082331605274</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.2942652951923748</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.756271834362167</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.7753672545885877</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.058908464317824</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.07145539010940638</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.09128419716034841</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2942130576337405</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.890647579083804</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.8090333048963032</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.116027851987113</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.07324920697094228</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.08971792474741136</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.2948693295071081</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.483844387613715</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.9576892545033218</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.372615069539791</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.08345180127237484</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.08420294175436993</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.3055175273152031</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.651028611485913</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.250240673411042</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.898441627633119</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.1133412836612493</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07914218657459315</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.3593262384318479</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.514367583947603</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.46658340604597</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.305537871316901</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1430603221137901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.07969650678938223</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.4242139023650395</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5.909242742088452</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.565504114697831</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.497051038563356</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1586955828706351</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08106598427679756</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.4605485131790488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6.059157703118615</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.603053415953582</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.570655876038089</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.1649607877340031</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08176298700002604</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.475410334135816</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.026852428214625</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.594962191593368</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.554752568491324</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.163595457340513</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.08160463749878488</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.4721584437990742</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5.921568164041844</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.568591403761161</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.503083768322554</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.1592038758582177</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.08111964319325438</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.4617483570854972</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.857130983583033</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.552450831371857</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.471581731421892</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1565600312610442</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08084636290924152</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.4555193350855689</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.488610970520369</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.460130326617502</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.293163591170853</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.1420844409731217</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.07963096668461134</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.4219867017043981</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.263135618417891</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.403635973415987</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.185445727842449</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1337733900000444</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.07918359059888047</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.403244679826642</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.133644325288174</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.371188320492593</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.12407273249363</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.1291896142254743</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07903027437199484</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.3930983652931985</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5.089832279171844</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.360209570205143</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.103388183471452</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.1276702211128296</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.07899571542458972</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.3897682920816834</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.287117021199208</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.409644970288525</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.196850907076893</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.1346374984033432</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.079220327944725</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.4051733781422229</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5.952481620499952</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.576334546735154</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.518229252708522</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.1604840993587047</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.08125710505706252</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.4647750850316612</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.38961774193848</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.68581101465611</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.734679561296829</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.1794060294266231</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.08363780375425733</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.5102220754822326</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.156073553076112</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.627326084105164</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.618505496715031</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.1691068970709182</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.08226478338535514</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.4853280512631102</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.276274606456298</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.406928205352528</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.19169290828998</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.1342462325979525</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.07920339672636345</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.4042994643943274</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.334521440803883</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.170911661660398</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.753096642500267</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.1040277438726207</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.07982043511652392</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.3407278611712314</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.644721476065513</v>
+        <v>1.194969979067764</v>
       </c>
       <c r="C2">
-        <v>0.9980118223499801</v>
+        <v>0.3616021647164303</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.443440197398559</v>
+        <v>0.4290078762398224</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0868258849290342</v>
+        <v>0.1039218777233302</v>
       </c>
       <c r="H2">
-        <v>0.08307201452323909</v>
+        <v>0.2774058782005184</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3104511421176142</v>
+        <v>0.6527845062938411</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.17835184390384</v>
+        <v>1.04350217468874</v>
       </c>
       <c r="C3">
-        <v>0.8811261805087156</v>
+        <v>0.3229059361183602</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.239575014828944</v>
+        <v>0.374192887699067</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.07774558435832546</v>
+        <v>0.1064006724716862</v>
       </c>
       <c r="H3">
-        <v>0.08676892637112132</v>
+        <v>0.2833977127817562</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2985054191002092</v>
+        <v>0.670301836390081</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.892219927322344</v>
+        <v>0.9501355902031605</v>
       </c>
       <c r="C4">
-        <v>0.8094272606172979</v>
+        <v>0.2990604683654965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.116698426273658</v>
+        <v>0.3406221926653075</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.07327137543590823</v>
+        <v>0.1082086931143209</v>
       </c>
       <c r="H4">
-        <v>0.08970032956297302</v>
+        <v>0.2873613110186071</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2948810290994572</v>
+        <v>0.6822505827476988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.7756316405397</v>
+        <v>0.9119986520393013</v>
       </c>
       <c r="C5">
-        <v>0.7802173230278413</v>
+        <v>0.2893224091187108</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.067114683735284</v>
+        <v>0.326961735161106</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0717014365312636</v>
+        <v>0.1090166775702919</v>
       </c>
       <c r="H5">
-        <v>0.09105082331605274</v>
+        <v>0.2890478265128245</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2942652951923748</v>
+        <v>0.6874177402280992</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.756271834362167</v>
+        <v>0.9056607210990251</v>
       </c>
       <c r="C6">
-        <v>0.7753672545885877</v>
+        <v>0.2877041753627338</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.058908464317824</v>
+        <v>0.3246945764550446</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.07145539010940638</v>
+        <v>0.1091551219579436</v>
       </c>
       <c r="H6">
-        <v>0.09128419716034841</v>
+        <v>0.28933217132845</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2942130576337405</v>
+        <v>0.68829367788166</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.890647579083804</v>
+        <v>0.9496216204440771</v>
       </c>
       <c r="C7">
-        <v>0.8090333048963032</v>
+        <v>0.2989292208691552</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.116027851987113</v>
+        <v>0.3404378847639151</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.07324920697094228</v>
+        <v>0.1082193025428744</v>
       </c>
       <c r="H7">
-        <v>0.08971792474741136</v>
+        <v>0.2873837675229858</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2948693295071081</v>
+        <v>0.6823190651927291</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483844387613715</v>
+        <v>1.142820978135035</v>
       </c>
       <c r="C8">
-        <v>0.9576892545033218</v>
+        <v>0.3482779502538733</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.372615069539791</v>
+        <v>0.4100887711352783</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.08345180127237484</v>
+        <v>0.1047167658497585</v>
       </c>
       <c r="H8">
-        <v>0.08420294175436993</v>
+        <v>0.2794126499412926</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3055175273152031</v>
+        <v>0.6585756352619256</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.651028611485913</v>
+        <v>1.518703176012252</v>
       </c>
       <c r="C9">
-        <v>1.250240673411042</v>
+        <v>0.4443419307663703</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.898441627633119</v>
+        <v>0.5474405348454354</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1133412836612493</v>
+        <v>0.1001502592159227</v>
       </c>
       <c r="H9">
-        <v>0.07914218657459315</v>
+        <v>0.2660502090460568</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3593262384318479</v>
+        <v>0.6215727217789748</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.514367583947603</v>
+        <v>1.792957655765861</v>
       </c>
       <c r="C10">
-        <v>1.46658340604597</v>
+        <v>0.5144581232898986</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.305537871316901</v>
+        <v>0.6489470192608593</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1430603221137901</v>
+        <v>0.09824318585554437</v>
       </c>
       <c r="H10">
-        <v>0.07969650678938223</v>
+        <v>0.2576306654744798</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4242139023650395</v>
+        <v>0.6003390621484073</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.909242742088452</v>
+        <v>1.917292658480505</v>
       </c>
       <c r="C11">
-        <v>1.565504114697831</v>
+        <v>0.5462497296653623</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.497051038563356</v>
+        <v>0.695282065323795</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1586955828706351</v>
+        <v>0.09769958442565496</v>
       </c>
       <c r="H11">
-        <v>0.08106598427679756</v>
+        <v>0.2541070735535556</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4605485131790488</v>
+        <v>0.5919987842164858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.059157703118615</v>
+        <v>1.964312074147301</v>
       </c>
       <c r="C12">
-        <v>1.603053415953582</v>
+        <v>0.5582727241524594</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.570655876038089</v>
+        <v>0.7128529437601827</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1649607877340031</v>
+        <v>0.09754109883147066</v>
       </c>
       <c r="H12">
-        <v>0.08176298700002604</v>
+        <v>0.2528171223847764</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.475410334135816</v>
+        <v>0.589032431333834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.026852428214625</v>
+        <v>1.954188467178142</v>
       </c>
       <c r="C13">
-        <v>1.594962191593368</v>
+        <v>0.5556840716496936</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.554752568491324</v>
+        <v>0.7090676070841937</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.163595457340513</v>
+        <v>0.09757311252323575</v>
       </c>
       <c r="H13">
-        <v>0.08160463749878488</v>
+        <v>0.2530929591759303</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4721584437990742</v>
+        <v>0.5896627164504906</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.921568164041844</v>
+        <v>1.921162261815709</v>
       </c>
       <c r="C14">
-        <v>1.568591403761161</v>
+        <v>0.54723918953664</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.503083768322554</v>
+        <v>0.6967271240135204</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1592038758582177</v>
+        <v>0.09768559198045779</v>
       </c>
       <c r="H14">
-        <v>0.08111964319325438</v>
+        <v>0.2540000579030846</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4617483570854972</v>
+        <v>0.5917508811016603</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.857130983583033</v>
+        <v>1.900924408324613</v>
       </c>
       <c r="C15">
-        <v>1.552450831371857</v>
+        <v>0.5420643759546806</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.471581731421892</v>
+        <v>0.6891715086487835</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1565600312610442</v>
+        <v>0.09776068038752328</v>
       </c>
       <c r="H15">
-        <v>0.08084636290924152</v>
+        <v>0.2545614669927403</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4555193350855689</v>
+        <v>0.5930550040939977</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.488610970520369</v>
+        <v>1.784823311747118</v>
       </c>
       <c r="C16">
-        <v>1.460130326617502</v>
+        <v>0.5123782973763582</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.293163591170853</v>
+        <v>0.6459222815661576</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1420844409731217</v>
+        <v>0.09828529682335585</v>
       </c>
       <c r="H16">
-        <v>0.07963096668461134</v>
+        <v>0.2578671321789656</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4219867017043981</v>
+        <v>0.6009108537839012</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.263135618417891</v>
+        <v>1.713488491734779</v>
       </c>
       <c r="C17">
-        <v>1.403635973415987</v>
+        <v>0.4941395178017842</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.185445727842449</v>
+        <v>0.6194324140812455</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1337733900000444</v>
+        <v>0.0986906567322805</v>
       </c>
       <c r="H17">
-        <v>0.07918359059888047</v>
+        <v>0.2599737534740569</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.403244679826642</v>
+        <v>0.6060696004334716</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.133644325288174</v>
+        <v>1.672418757450259</v>
       </c>
       <c r="C18">
-        <v>1.371188320492593</v>
+        <v>0.4836392530671105</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.12407273249363</v>
+        <v>0.6042110160391445</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1291896142254743</v>
+        <v>0.09895425259016122</v>
       </c>
       <c r="H18">
-        <v>0.07903027437199484</v>
+        <v>0.2612142587046549</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3930983652931985</v>
+        <v>0.6091607925311422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.089832279171844</v>
+        <v>1.658506485837904</v>
       </c>
       <c r="C19">
-        <v>1.360209570205143</v>
+        <v>0.4800823836917516</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.103388183471452</v>
+        <v>0.599059808982048</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1276702211128296</v>
+        <v>0.09904870647839914</v>
       </c>
       <c r="H19">
-        <v>0.07899571542458972</v>
+        <v>0.2616392158645908</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3897682920816834</v>
+        <v>0.6102286484810406</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.287117021199208</v>
+        <v>1.721086345670244</v>
       </c>
       <c r="C20">
-        <v>1.409644970288525</v>
+        <v>0.4960820869129066</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.196850907076893</v>
+        <v>0.622250752681424</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1346374984033432</v>
+        <v>0.09864434901289343</v>
       </c>
       <c r="H20">
-        <v>0.079220327944725</v>
+        <v>0.2597465139530897</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4051733781422229</v>
+        <v>0.6055075913620698</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.952481620499952</v>
+        <v>1.930864603206032</v>
       </c>
       <c r="C21">
-        <v>1.576334546735154</v>
+        <v>0.5497200908074547</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.518229252708522</v>
+        <v>0.7003511346284341</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1604840993587047</v>
+        <v>0.09765126233887855</v>
       </c>
       <c r="H21">
-        <v>0.08125710505706252</v>
+        <v>0.2537324149402309</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4647750850316612</v>
+        <v>0.5911323096306091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.38961774193848</v>
+        <v>2.067595272575943</v>
       </c>
       <c r="C22">
-        <v>1.68581101465611</v>
+        <v>0.5846832081238063</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.734679561296829</v>
+        <v>0.7515397135821189</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1794060294266231</v>
+        <v>0.09727866267655116</v>
       </c>
       <c r="H22">
-        <v>0.08363780375425733</v>
+        <v>0.2500605293194624</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5102220754822326</v>
+        <v>0.5828569914403516</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.156073553076112</v>
+        <v>1.994654345970616</v>
       </c>
       <c r="C23">
-        <v>1.627326084105164</v>
+        <v>0.5660314374250106</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.618505496715031</v>
+        <v>0.7242054608978776</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1691068970709182</v>
+        <v>0.09745197311760023</v>
       </c>
       <c r="H23">
-        <v>0.08226478338535514</v>
+        <v>0.2519965215287741</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4853280512631102</v>
+        <v>0.5871704806097</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.276274606456298</v>
+        <v>1.717651537621464</v>
       </c>
       <c r="C24">
-        <v>1.406928205352528</v>
+        <v>0.4952038966787882</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.19169290828998</v>
+        <v>0.6209765571265962</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1342462325979525</v>
+        <v>0.09866518963342941</v>
       </c>
       <c r="H24">
-        <v>0.07920339672636345</v>
+        <v>0.2598491574396391</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4042994643943274</v>
+        <v>0.6057612853372802</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.334521440803883</v>
+        <v>1.417345556484349</v>
       </c>
       <c r="C25">
-        <v>1.170911661660398</v>
+        <v>0.418433092748387</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.753096642500267</v>
+        <v>0.5101881373765309</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1040277438726207</v>
+        <v>0.1011345695931851</v>
       </c>
       <c r="H25">
-        <v>0.07982043511652392</v>
+        <v>0.2694206889789612</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3407278611712314</v>
+        <v>0.6305467712937229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.194969979067764</v>
+        <v>3.644721476065456</v>
       </c>
       <c r="C2">
-        <v>0.3616021647164303</v>
+        <v>0.9980118223499517</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4290078762398224</v>
+        <v>1.44344019739853</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1039218777233302</v>
+        <v>0.08682588492910526</v>
       </c>
       <c r="H2">
-        <v>0.2774058782005184</v>
+        <v>0.08307201452323909</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6527845062938411</v>
+        <v>0.3104511421176142</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.04350217468874</v>
+        <v>3.178351843904011</v>
       </c>
       <c r="C3">
-        <v>0.3229059361183602</v>
+        <v>0.881126180508943</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.374192887699067</v>
+        <v>1.239575014828958</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.1064006724716862</v>
+        <v>0.07774558435828283</v>
       </c>
       <c r="H3">
-        <v>0.2833977127817562</v>
+        <v>0.08676892637099343</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.670301836390081</v>
+        <v>0.2985054191002234</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9501355902031605</v>
+        <v>2.892219927322458</v>
       </c>
       <c r="C4">
-        <v>0.2990604683654965</v>
+        <v>0.8094272606175252</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3406221926653075</v>
+        <v>1.116698426273643</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1082086931143209</v>
+        <v>0.07327137543579454</v>
       </c>
       <c r="H4">
-        <v>0.2873613110186071</v>
+        <v>0.08970032956298013</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6822505827476988</v>
+        <v>0.2948810290994572</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9119986520393013</v>
+        <v>2.775631640539814</v>
       </c>
       <c r="C5">
-        <v>0.2893224091187108</v>
+        <v>0.7802173230278413</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.326961735161106</v>
+        <v>1.067114683735269</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1090166775702919</v>
+        <v>0.07170143653126715</v>
       </c>
       <c r="H5">
-        <v>0.2890478265128245</v>
+        <v>0.09105082331605274</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6874177402280992</v>
+        <v>0.2942652951924458</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9056607210990251</v>
+        <v>2.756271834362167</v>
       </c>
       <c r="C6">
-        <v>0.2877041753627338</v>
+        <v>0.7753672545881329</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3246945764550446</v>
+        <v>1.058908464317824</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.1091551219579436</v>
+        <v>0.07145539010940283</v>
       </c>
       <c r="H6">
-        <v>0.28933217132845</v>
+        <v>0.09128419716034841</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.68829367788166</v>
+        <v>0.2942130576337547</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9496216204440771</v>
+        <v>2.890647579083804</v>
       </c>
       <c r="C7">
-        <v>0.2989292208691552</v>
+        <v>0.8090333048963032</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3404378847639151</v>
+        <v>1.116027851987113</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1082193025428744</v>
+        <v>0.07324920697094228</v>
       </c>
       <c r="H7">
-        <v>0.2873837675229858</v>
+        <v>0.08971792474751794</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6823190651927291</v>
+        <v>0.2948693295071081</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.142820978135035</v>
+        <v>3.483844387613487</v>
       </c>
       <c r="C8">
-        <v>0.3482779502538733</v>
+        <v>0.9576892545030091</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4100887711352783</v>
+        <v>1.372615069539776</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.1047167658497585</v>
+        <v>0.0834518012723251</v>
       </c>
       <c r="H8">
-        <v>0.2794126499412926</v>
+        <v>0.08420294175436993</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6585756352619256</v>
+        <v>0.3055175273151463</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.518703176012252</v>
+        <v>4.651028611485913</v>
       </c>
       <c r="C9">
-        <v>0.4443419307663703</v>
+        <v>1.250240673411554</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5474405348454354</v>
+        <v>1.898441627633147</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.1001502592159227</v>
+        <v>0.113341283661299</v>
       </c>
       <c r="H9">
-        <v>0.2660502090460568</v>
+        <v>0.07914218657459315</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6215727217789748</v>
+        <v>0.3593262384318621</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.792957655765861</v>
+        <v>5.514367583947603</v>
       </c>
       <c r="C10">
-        <v>0.5144581232898986</v>
+        <v>1.466583406045743</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6489470192608593</v>
+        <v>2.305537871316915</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.09824318585554437</v>
+        <v>0.1430603221137829</v>
       </c>
       <c r="H10">
-        <v>0.2576306654744798</v>
+        <v>0.07969650678926854</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6003390621484073</v>
+        <v>0.4242139023650964</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.917292658480505</v>
+        <v>5.909242742088338</v>
       </c>
       <c r="C11">
-        <v>0.5462497296653623</v>
+        <v>1.565504114697376</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.695282065323795</v>
+        <v>2.497051038563328</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.09769958442565496</v>
+        <v>0.158695582870692</v>
       </c>
       <c r="H11">
-        <v>0.2541070735535556</v>
+        <v>0.08106598427669098</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5919987842164858</v>
+        <v>0.4605485131790488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.964312074147301</v>
+        <v>6.059157703118672</v>
       </c>
       <c r="C12">
-        <v>0.5582727241524594</v>
+        <v>1.603053415953582</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7128529437601827</v>
+        <v>2.570655876038089</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.09754109883147066</v>
+        <v>0.1649607877339889</v>
       </c>
       <c r="H12">
-        <v>0.2528171223847764</v>
+        <v>0.08176298699991236</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.589032431333834</v>
+        <v>0.475410334135816</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.954188467178142</v>
+        <v>6.026852428214568</v>
       </c>
       <c r="C13">
-        <v>0.5556840716496936</v>
+        <v>1.594962191593424</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7090676070841937</v>
+        <v>2.55475256849131</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.09757311252323575</v>
+        <v>0.1635954573405272</v>
       </c>
       <c r="H13">
-        <v>0.2530929591759303</v>
+        <v>0.0816046374986712</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5896627164504906</v>
+        <v>0.4721584437990174</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.921162261815709</v>
+        <v>5.921568164041616</v>
       </c>
       <c r="C14">
-        <v>0.54723918953664</v>
+        <v>1.568591403761161</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6967271240135204</v>
+        <v>2.503083768322526</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.09768559198045779</v>
+        <v>0.1592038758582177</v>
       </c>
       <c r="H14">
-        <v>0.2540000579030846</v>
+        <v>0.08111964319324727</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5917508811016603</v>
+        <v>0.4617483570855399</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.900924408324613</v>
+        <v>5.857130983582977</v>
       </c>
       <c r="C15">
-        <v>0.5420643759546806</v>
+        <v>1.552450831371914</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6891715086487835</v>
+        <v>2.471581731421878</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.09776068038752328</v>
+        <v>0.156560031261094</v>
       </c>
       <c r="H15">
-        <v>0.2545614669927403</v>
+        <v>0.08084636290912783</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5930550040939977</v>
+        <v>0.4555193350855262</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.784823311747118</v>
+        <v>5.488610970520483</v>
       </c>
       <c r="C16">
-        <v>0.5123782973763582</v>
+        <v>1.460130326617787</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6459222815661576</v>
+        <v>2.293163591170824</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.09828529682335585</v>
+        <v>0.1420844409730151</v>
       </c>
       <c r="H16">
-        <v>0.2578671321789656</v>
+        <v>0.07963096668461134</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6009108537839012</v>
+        <v>0.4219867017043981</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.713488491734779</v>
+        <v>5.263135618417948</v>
       </c>
       <c r="C17">
-        <v>0.4941395178017842</v>
+        <v>1.403635973415987</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6194324140812455</v>
+        <v>2.185445727842449</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0986906567322805</v>
+        <v>0.1337733900001083</v>
       </c>
       <c r="H17">
-        <v>0.2599737534740569</v>
+        <v>0.07918359059876678</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6060696004334716</v>
+        <v>0.403244679826642</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.672418757450259</v>
+        <v>5.133644325287946</v>
       </c>
       <c r="C18">
-        <v>0.4836392530671105</v>
+        <v>1.37118832049282</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6042110160391445</v>
+        <v>2.124072732493673</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.09895425259016122</v>
+        <v>0.1291896142254529</v>
       </c>
       <c r="H18">
-        <v>0.2612142587046549</v>
+        <v>0.07903027437210852</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6091607925311422</v>
+        <v>0.3930983652931985</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.658506485837904</v>
+        <v>5.089832279171503</v>
       </c>
       <c r="C19">
-        <v>0.4800823836917516</v>
+        <v>1.360209570204859</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.599059808982048</v>
+        <v>2.103388183471424</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.09904870647839914</v>
+        <v>0.1276702211128651</v>
       </c>
       <c r="H19">
-        <v>0.2616392158645908</v>
+        <v>0.07899571542459682</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6102286484810406</v>
+        <v>0.3897682920816408</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.721086345670244</v>
+        <v>5.287117021199322</v>
       </c>
       <c r="C20">
-        <v>0.4960820869129066</v>
+        <v>1.409644970288241</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.622250752681424</v>
+        <v>2.19685090707685</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.09864434901289343</v>
+        <v>0.1346374984034355</v>
       </c>
       <c r="H20">
-        <v>0.2597465139530897</v>
+        <v>0.07922032794473211</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6055075913620698</v>
+        <v>0.4051733781422087</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.930864603206032</v>
+        <v>5.952481620500237</v>
       </c>
       <c r="C21">
-        <v>0.5497200908074547</v>
+        <v>1.576334546735382</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7003511346284341</v>
+        <v>2.518229252708537</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.09765126233887855</v>
+        <v>0.1604840993587189</v>
       </c>
       <c r="H21">
-        <v>0.2537324149402309</v>
+        <v>0.08125710505705541</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5911323096306091</v>
+        <v>0.4647750850316328</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.067595272575943</v>
+        <v>6.389617741938139</v>
       </c>
       <c r="C22">
-        <v>0.5846832081238063</v>
+        <v>1.685811014656224</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7515397135821189</v>
+        <v>2.734679561296772</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.09727866267655116</v>
+        <v>0.1794060294266728</v>
       </c>
       <c r="H22">
-        <v>0.2500605293194624</v>
+        <v>0.08363780375426444</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5828569914403516</v>
+        <v>0.51022207548219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.994654345970616</v>
+        <v>6.156073553076283</v>
       </c>
       <c r="C23">
-        <v>0.5660314374250106</v>
+        <v>1.627326084104936</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7242054608978776</v>
+        <v>2.618505496715073</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.09745197311760023</v>
+        <v>0.1691068970708542</v>
       </c>
       <c r="H23">
-        <v>0.2519965215287741</v>
+        <v>0.08226478338524146</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5871704806097</v>
+        <v>0.4853280512631244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.717651537621464</v>
+        <v>5.276274606456241</v>
       </c>
       <c r="C24">
-        <v>0.4952038966787882</v>
+        <v>1.406928205352301</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6209765571265962</v>
+        <v>2.191692908290008</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.09866518963342941</v>
+        <v>0.1342462325980094</v>
       </c>
       <c r="H24">
-        <v>0.2598491574396391</v>
+        <v>0.07920339672637056</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6057612853372802</v>
+        <v>0.4042994643943274</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.417345556484349</v>
+        <v>4.334521440803655</v>
       </c>
       <c r="C25">
-        <v>0.418433092748387</v>
+        <v>1.170911661660398</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5101881373765309</v>
+        <v>1.753096642500267</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1011345695931851</v>
+        <v>0.1040277438725639</v>
       </c>
       <c r="H25">
-        <v>0.2694206889789612</v>
+        <v>0.07982043511652392</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6305467712937229</v>
+        <v>0.3407278611712456</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.644721476065456</v>
+        <v>0.9725633246762868</v>
       </c>
       <c r="C2">
-        <v>0.9980118223499517</v>
+        <v>0.2241877864138075</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.44344019739853</v>
+        <v>1.259479977200101</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.08682588492910526</v>
+        <v>0.6344042530214011</v>
       </c>
       <c r="H2">
-        <v>0.08307201452323909</v>
+        <v>0.002056183242760135</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002616512861773224</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4827653346102494</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4415034252557177</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.151975861920675</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3104511421176142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.178351843904011</v>
+        <v>0.8468912530995567</v>
       </c>
       <c r="C3">
-        <v>0.881126180508943</v>
+        <v>0.1953356130975692</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.239575014828958</v>
+        <v>1.093488916977265</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.07774558435828283</v>
+        <v>0.6063162904957693</v>
       </c>
       <c r="H3">
-        <v>0.08676892637099343</v>
+        <v>0.0008601283310194496</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0041288153236545</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4747224090958326</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4372576881305505</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.003279917387687</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2985054191002234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.892219927322458</v>
+        <v>0.7695864228761025</v>
       </c>
       <c r="C4">
-        <v>0.8094272606175252</v>
+        <v>0.1778693217921727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.116698426273643</v>
+        <v>0.9919125641140454</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.07327137543579454</v>
+        <v>0.5892721197271129</v>
       </c>
       <c r="H4">
-        <v>0.08970032956298013</v>
+        <v>0.0003671820387176616</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005324115047573574</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4699395336836005</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4347191006025639</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9121540678511906</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2948810290994572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.775631640539814</v>
+        <v>0.7377728120244171</v>
       </c>
       <c r="C5">
-        <v>0.7802173230278413</v>
+        <v>0.1712100282147162</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.067114683735269</v>
+        <v>0.9505731403081228</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.07170143653126715</v>
+        <v>0.5808120457063808</v>
       </c>
       <c r="H5">
-        <v>0.09105082331605274</v>
+        <v>0.0002226270400691455</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005955370636023805</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4672135420573511</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.432704859399287</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8753670405958758</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2942652951924458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.756271834362167</v>
+        <v>0.7321577337066856</v>
       </c>
       <c r="C6">
-        <v>0.7753672545881329</v>
+        <v>0.1706006382107432</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.058908464317824</v>
+        <v>0.9436961931135528</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.07145539010940283</v>
+        <v>0.5775107752435389</v>
       </c>
       <c r="H6">
-        <v>0.09128419716034841</v>
+        <v>0.0002014851673282081</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.006169768075184656</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4657719384202039</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4311601302564689</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8696473624746091</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2942130576337547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.890647579083804</v>
+        <v>0.7682531229604024</v>
       </c>
       <c r="C7">
-        <v>0.8090333048963032</v>
+        <v>0.1791287448851904</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.116027851987113</v>
+        <v>0.9913096485692989</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.07324920697094228</v>
+        <v>0.5839681276028017</v>
       </c>
       <c r="H7">
-        <v>0.08971792474751794</v>
+        <v>0.0003632915964786321</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005604225536758101</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4671979712325793</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4313840994399847</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9127174423690576</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2948693295071081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483844387613487</v>
+        <v>0.9280440717746501</v>
       </c>
       <c r="C8">
-        <v>0.9576892545030091</v>
+        <v>0.2159851185366222</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.372615069539776</v>
+        <v>1.202097560642841</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0834518012723251</v>
+        <v>0.6178116503291164</v>
       </c>
       <c r="H8">
-        <v>0.08420294175436993</v>
+        <v>0.001586734409745771</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003402408061641715</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.476397318880359</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4356662620310345</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.102072498600506</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3055175273151463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.651028611485913</v>
+        <v>1.24223670175391</v>
       </c>
       <c r="C9">
-        <v>1.250240673411554</v>
+        <v>0.2880964006699855</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.898441627633147</v>
+        <v>1.619196516143759</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.113341283661299</v>
+        <v>0.6955078271172397</v>
       </c>
       <c r="H9">
-        <v>0.07914218657459315</v>
+        <v>0.006098242850484659</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.000964505379851488</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5006742627611942</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.450652417674398</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.473479619358159</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3593262384318621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.514367583947603</v>
+        <v>1.474181541805422</v>
       </c>
       <c r="C10">
-        <v>1.466583406045743</v>
+        <v>0.3398649041557462</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.305537871316915</v>
+        <v>1.830513958375036</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1430603221137829</v>
+        <v>0.7255540382814019</v>
       </c>
       <c r="H10">
-        <v>0.07969650678926854</v>
+        <v>0.01058044182872475</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.000929037728144344</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5050125567832282</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4469204044560726</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.745403365995628</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4242139023650964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.909242742088338</v>
+        <v>1.592504345057449</v>
       </c>
       <c r="C11">
-        <v>1.565504114697376</v>
+        <v>0.3341334322377918</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.497051038563328</v>
+        <v>1.166677898183409</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.158695582870692</v>
+        <v>0.5250967505958783</v>
       </c>
       <c r="H11">
-        <v>0.08106598427669098</v>
+        <v>0.02713540381672885</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001522828490003292</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3982075082744672</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3353392856337365</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.840081955517235</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4605485131790488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.059157703118672</v>
+        <v>1.645908407548092</v>
       </c>
       <c r="C12">
-        <v>1.603053415953582</v>
+        <v>0.3168211498437472</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.570655876038089</v>
+        <v>0.6914449343277909</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1649607877339889</v>
+        <v>0.3847740347426338</v>
       </c>
       <c r="H12">
-        <v>0.08176298699991236</v>
+        <v>0.06413793870972029</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001513537297026524</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3242040201814476</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2643693934785887</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.860924480664806</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.475410334135816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.026852428214568</v>
+        <v>1.650497806156039</v>
       </c>
       <c r="C13">
-        <v>1.594962191593424</v>
+        <v>0.2919252055906441</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.55475256849131</v>
+        <v>0.3341387066771517</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1635954573405272</v>
+        <v>0.2738839350237896</v>
       </c>
       <c r="H13">
-        <v>0.0816046374986712</v>
+        <v>0.1183194548060271</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001410225835182466</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2665156160395554</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2147067019352988</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.827698607113803</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4721584437990174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.921568164041616</v>
+        <v>1.631346266452681</v>
       </c>
       <c r="C14">
-        <v>1.568591403761161</v>
+        <v>0.2717401117263734</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.503083768322526</v>
+        <v>0.1555873090786832</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1592038758582177</v>
+        <v>0.212524949767861</v>
       </c>
       <c r="H14">
-        <v>0.08111964319324727</v>
+        <v>0.1666889308341268</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001410670991019991</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2348128749306468</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1913177906635894</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.780545970244106</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4617483570855399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.857130983582977</v>
+        <v>1.615709280622013</v>
       </c>
       <c r="C15">
-        <v>1.552450831371914</v>
+        <v>0.2656493287034323</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.471581731421878</v>
+        <v>0.1210269851913282</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.156560031261094</v>
+        <v>0.1996380850454429</v>
       </c>
       <c r="H15">
-        <v>0.08084636290912783</v>
+        <v>0.1788770206214565</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001521325160044107</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2284873126968279</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.187566124378983</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.758010411918576</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4555193350855262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.488610970520483</v>
+        <v>1.513710795518477</v>
       </c>
       <c r="C16">
-        <v>1.460130326617787</v>
+        <v>0.2500017456461734</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.293163591170824</v>
+        <v>0.1179314090250188</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.1420844409730151</v>
+        <v>0.2083970039242473</v>
       </c>
       <c r="H16">
-        <v>0.07963096668461134</v>
+        <v>0.1649525396933882</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001693266622607936</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2373417127801929</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1977565313533125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.649003633416214</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4219867017043981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.263135618417948</v>
+        <v>1.445811545346515</v>
       </c>
       <c r="C17">
-        <v>1.403635973415987</v>
+        <v>0.2486270315389305</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.185445727842449</v>
+        <v>0.1967477704152785</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1337733900001083</v>
+        <v>0.2449645388445489</v>
       </c>
       <c r="H17">
-        <v>0.07918359059876678</v>
+        <v>0.1267169719611871</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001869636274303588</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.259776200002328</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2164354677717082</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.590537977719237</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.403244679826642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.133644325287946</v>
+        <v>1.400531406075089</v>
       </c>
       <c r="C18">
-        <v>1.37118832049282</v>
+        <v>0.2586716037349106</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.124072732493673</v>
+        <v>0.4169965761323411</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1291896142254529</v>
+        <v>0.324943978430916</v>
       </c>
       <c r="H18">
-        <v>0.07903027437210852</v>
+        <v>0.07419877400752739</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001677043538927947</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3038988283633586</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2539831382146218</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.567861973921254</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3930983652931985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.089832279171503</v>
+        <v>1.375332597798206</v>
       </c>
       <c r="C19">
-        <v>1.360209570204859</v>
+        <v>0.2803756458105227</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.103388183471424</v>
+        <v>0.8311128250394404</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1276702211128651</v>
+        <v>0.4491569803315514</v>
       </c>
       <c r="H19">
-        <v>0.07899571542459682</v>
+        <v>0.03030618253777817</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001718929000419145</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3691272136598229</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3138623851866278</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.578051150272017</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3897682920816408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.287117021199322</v>
+        <v>1.410380549420267</v>
       </c>
       <c r="C20">
-        <v>1.409644970288241</v>
+        <v>0.3303240803819847</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.19685090707685</v>
+        <v>1.77056277081067</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1346374984034355</v>
+        <v>0.7006308090576709</v>
       </c>
       <c r="H20">
-        <v>0.07922032794473211</v>
+        <v>0.009242343885433879</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001605285617968022</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4950902196248563</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4373699337676555</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.677061630681749</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4051733781422087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.952481620500237</v>
+        <v>1.586691899889814</v>
       </c>
       <c r="C21">
-        <v>1.576334546735382</v>
+        <v>0.3756245104628135</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.518229252708537</v>
+        <v>2.086799656136449</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1604840993587189</v>
+        <v>0.7686142341588891</v>
       </c>
       <c r="H21">
-        <v>0.08125710505705541</v>
+        <v>0.01386686677935645</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001998616160300948</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5212449107455228</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4582180398200819</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.891532013255699</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4647750850316328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.389617741938139</v>
+        <v>1.704132772986696</v>
       </c>
       <c r="C22">
-        <v>1.685811014656224</v>
+        <v>0.4019962940375308</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.734679561296772</v>
+        <v>2.244519485083671</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1794060294266728</v>
+        <v>0.8069494289045593</v>
       </c>
       <c r="H22">
-        <v>0.08363780375426444</v>
+        <v>0.01707658191830319</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002332959217978825</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5353164134464379</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4692627730768066</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.029179822646171</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.51022207548219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.156073553076283</v>
+        <v>1.642556877492581</v>
       </c>
       <c r="C23">
-        <v>1.627326084104936</v>
+        <v>0.3862194122388303</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.618505496715073</v>
+        <v>2.160307739325802</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1691068970708542</v>
+        <v>0.7924677920777867</v>
       </c>
       <c r="H23">
-        <v>0.08226478338524146</v>
+        <v>0.01533760211104274</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001825814032460293</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5308750724469746</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4671288730065513</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.954369400192576</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4853280512631244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.276274606456241</v>
+        <v>1.407973568464371</v>
       </c>
       <c r="C24">
-        <v>1.406928205352301</v>
+        <v>0.3300105446868429</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.191692908290008</v>
+        <v>1.843534918484565</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1342462325980094</v>
+        <v>0.7294863739632973</v>
       </c>
       <c r="H24">
-        <v>0.07920339672637056</v>
+        <v>0.009496063367107566</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001116216793826119</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5099119063045947</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4536322522698839</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.674452385696981</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4042994643943274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.334521440803655</v>
+        <v>1.155591039523898</v>
       </c>
       <c r="C25">
-        <v>1.170911661660398</v>
+        <v>0.2707948424725402</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.753096642500267</v>
+        <v>1.505729372511766</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1040277438725639</v>
+        <v>0.6648833740425601</v>
       </c>
       <c r="H25">
-        <v>0.07982043511652392</v>
+        <v>0.004614782762429881</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001797006827927383</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4891108761001988</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4406165766244605</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.374639659421348</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3407278611712456</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9725633246762868</v>
+        <v>0.9623845343810444</v>
       </c>
       <c r="C2">
-        <v>0.2241877864138075</v>
+        <v>0.2466798579549874</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.259479977200101</v>
+        <v>1.263748211798372</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6344042530214011</v>
+        <v>0.5038365241717315</v>
       </c>
       <c r="H2">
-        <v>0.002056183242760135</v>
+        <v>0.002383090432025892</v>
       </c>
       <c r="I2">
-        <v>0.002616512861773224</v>
+        <v>0.001681525074873846</v>
       </c>
       <c r="J2">
-        <v>0.4827653346102494</v>
+        <v>0.4434981908632096</v>
       </c>
       <c r="K2">
-        <v>0.4415034252557177</v>
+        <v>0.3586607523788494</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1741646864971536</v>
       </c>
       <c r="M2">
-        <v>1.151975861920675</v>
+        <v>0.1008330797642412</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.178996108683947</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8468912530995567</v>
+        <v>0.8405524752117799</v>
       </c>
       <c r="C3">
-        <v>0.1953356130975692</v>
+        <v>0.2123345459783934</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.093488916977265</v>
+        <v>1.098097058207003</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.6063162904957693</v>
+        <v>0.4929248265780899</v>
       </c>
       <c r="H3">
-        <v>0.0008601283310194496</v>
+        <v>0.001121277508248975</v>
       </c>
       <c r="I3">
-        <v>0.0041288153236545</v>
+        <v>0.002631072614624586</v>
       </c>
       <c r="J3">
-        <v>0.4747224090958326</v>
+        <v>0.4391345894418635</v>
       </c>
       <c r="K3">
-        <v>0.4372576881305505</v>
+        <v>0.3625692092307595</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1794551624889209</v>
       </c>
       <c r="M3">
-        <v>1.003279917387687</v>
+        <v>0.09976400832822563</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.026238222126835</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7695864228761025</v>
+        <v>0.7654987934686517</v>
       </c>
       <c r="C4">
-        <v>0.1778693217921727</v>
+        <v>0.191583877310606</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9919125641140454</v>
+        <v>0.996649463308799</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5892721197271129</v>
+        <v>0.4864405978274817</v>
       </c>
       <c r="H4">
-        <v>0.0003671820387176616</v>
+        <v>0.0005640068679162447</v>
       </c>
       <c r="I4">
-        <v>0.005324115047573574</v>
+        <v>0.003420481437372391</v>
       </c>
       <c r="J4">
-        <v>0.4699395336836005</v>
+        <v>0.4363721933482338</v>
       </c>
       <c r="K4">
-        <v>0.4347191006025639</v>
+        <v>0.3649856962205398</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1827237766732601</v>
       </c>
       <c r="M4">
-        <v>0.9121540678511906</v>
+        <v>0.09961647246900185</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.932583671273477</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7377728120244171</v>
+        <v>0.7346099498085152</v>
       </c>
       <c r="C5">
-        <v>0.1712100282147162</v>
+        <v>0.1835830305988537</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9505731403081228</v>
+        <v>0.9553453370732257</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5808120457063808</v>
+        <v>0.4826293926552765</v>
       </c>
       <c r="H5">
-        <v>0.0002226270400691455</v>
+        <v>0.0003875511290822864</v>
       </c>
       <c r="I5">
-        <v>0.005955370636023805</v>
+        <v>0.003882338662808849</v>
       </c>
       <c r="J5">
-        <v>0.4672135420573511</v>
+        <v>0.4345641898421206</v>
       </c>
       <c r="K5">
-        <v>0.432704859399287</v>
+        <v>0.3652264999725219</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1836995519476758</v>
       </c>
       <c r="M5">
-        <v>0.8753670405958758</v>
+        <v>0.09948364554363032</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8947228821059809</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7321577337066856</v>
+        <v>0.7291864728882729</v>
       </c>
       <c r="C6">
-        <v>0.1706006382107432</v>
+        <v>0.1827214884851145</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9436961931135528</v>
+        <v>0.9484742684649632</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.5775107752435389</v>
+        <v>0.4805190465918159</v>
       </c>
       <c r="H6">
-        <v>0.0002014851673282081</v>
+        <v>0.0003606950221244354</v>
       </c>
       <c r="I6">
-        <v>0.006169768075184656</v>
+        <v>0.004081890660287968</v>
       </c>
       <c r="J6">
-        <v>0.4657719384202039</v>
+        <v>0.4334576398654661</v>
       </c>
       <c r="K6">
-        <v>0.4311601302564689</v>
+        <v>0.3643587642865036</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1834230706005542</v>
       </c>
       <c r="M6">
-        <v>0.8696473624746091</v>
+        <v>0.09922612036113065</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.888779426452885</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7682531229604024</v>
+        <v>0.7645907647797401</v>
       </c>
       <c r="C7">
-        <v>0.1791287448851904</v>
+        <v>0.1921607379230892</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9913096485692989</v>
+        <v>0.9960169255827225</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5839681276028017</v>
+        <v>0.4838251353998189</v>
       </c>
       <c r="H7">
-        <v>0.0003632915964786321</v>
+        <v>0.0005580587958171623</v>
       </c>
       <c r="I7">
-        <v>0.005604225536758101</v>
+        <v>0.003741447390859243</v>
       </c>
       <c r="J7">
-        <v>0.4671979712325793</v>
+        <v>0.4288086634341823</v>
       </c>
       <c r="K7">
-        <v>0.4313840994399847</v>
+        <v>0.3613448931356302</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1810157645811223</v>
       </c>
       <c r="M7">
-        <v>0.9127174423690576</v>
+        <v>0.09859786774310919</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9325219286218385</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9280440717746501</v>
+        <v>0.9203797688565771</v>
       </c>
       <c r="C8">
-        <v>0.2159851185366222</v>
+        <v>0.2344976676487676</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.202097560642841</v>
+        <v>1.206389364186776</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.6178116503291164</v>
+        <v>0.4997058700654406</v>
       </c>
       <c r="H8">
-        <v>0.001586734409745771</v>
+        <v>0.001887924173135547</v>
       </c>
       <c r="I8">
-        <v>0.003402408061641715</v>
+        <v>0.002348293575309413</v>
       </c>
       <c r="J8">
-        <v>0.476397318880359</v>
+        <v>0.4218709533574696</v>
       </c>
       <c r="K8">
-        <v>0.4356662620310345</v>
+        <v>0.3530319509032758</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1729423423637613</v>
       </c>
       <c r="M8">
-        <v>1.102072498600506</v>
+        <v>0.09816098810388496</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.125896856758743</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.24223670175391</v>
+        <v>1.224471159836042</v>
       </c>
       <c r="C9">
-        <v>0.2880964006699855</v>
+        <v>0.3203177230676602</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.619196516143759</v>
+        <v>1.622044650895077</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6955078271172397</v>
+        <v>0.5347645955983182</v>
       </c>
       <c r="H9">
-        <v>0.006098242850484659</v>
+        <v>0.006402025219994112</v>
       </c>
       <c r="I9">
-        <v>0.000964505379851488</v>
+        <v>0.0008862255533550467</v>
       </c>
       <c r="J9">
-        <v>0.5006742627611942</v>
+        <v>0.4303667522387116</v>
       </c>
       <c r="K9">
-        <v>0.450652417674398</v>
+        <v>0.3455036591289264</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1611311737636285</v>
       </c>
       <c r="M9">
-        <v>1.473479619358159</v>
+        <v>0.1039785157638775</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.506784975116545</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.474181541805422</v>
+        <v>1.451019450818563</v>
       </c>
       <c r="C10">
-        <v>0.3398649041557462</v>
+        <v>0.3774050082068641</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.830513958375036</v>
+        <v>1.831515669570123</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7255540382814019</v>
+        <v>0.5510031947908658</v>
       </c>
       <c r="H10">
-        <v>0.01058044182872475</v>
+        <v>0.01070579103110347</v>
       </c>
       <c r="I10">
-        <v>0.000929037728144344</v>
+        <v>0.001196405962457625</v>
       </c>
       <c r="J10">
-        <v>0.5050125567832282</v>
+        <v>0.39872731889524</v>
       </c>
       <c r="K10">
-        <v>0.4469204044560726</v>
+        <v>0.3247869850018716</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1471413901300949</v>
       </c>
       <c r="M10">
-        <v>1.745403365995628</v>
+        <v>0.1046210424111287</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.781228324773934</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.592504345057449</v>
+        <v>1.577817666561913</v>
       </c>
       <c r="C11">
-        <v>0.3341334322377918</v>
+        <v>0.3548503995860983</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.166677898183409</v>
+        <v>1.16696926343333</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5250967505958783</v>
+        <v>0.4188819632156395</v>
       </c>
       <c r="H11">
-        <v>0.02713540381672885</v>
+        <v>0.02717893096662749</v>
       </c>
       <c r="I11">
-        <v>0.001522828490003292</v>
+        <v>0.001910634447943593</v>
       </c>
       <c r="J11">
-        <v>0.3982075082744672</v>
+        <v>0.2864562371588093</v>
       </c>
       <c r="K11">
-        <v>0.3353392856337365</v>
+        <v>0.2433893806968221</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1169367945608109</v>
       </c>
       <c r="M11">
-        <v>1.840081955517235</v>
+        <v>0.07487041828547625</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.862789171090782</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.645908407548092</v>
+        <v>1.638519190938496</v>
       </c>
       <c r="C12">
-        <v>0.3168211498437472</v>
+        <v>0.3253811215576548</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6914449343277909</v>
+        <v>0.6916355259321421</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.3847740347426338</v>
+        <v>0.3200102767245028</v>
       </c>
       <c r="H12">
-        <v>0.06413793870972029</v>
+        <v>0.06417280509010936</v>
       </c>
       <c r="I12">
-        <v>0.001513537297026524</v>
+        <v>0.001896920916059308</v>
       </c>
       <c r="J12">
-        <v>0.3242040201814476</v>
+        <v>0.2373507171603748</v>
       </c>
       <c r="K12">
-        <v>0.2643693934785887</v>
+        <v>0.1995331255984052</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1023725119604579</v>
       </c>
       <c r="M12">
-        <v>1.860924480664806</v>
+        <v>0.05689551822660555</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.873835141584266</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.650497806156039</v>
+        <v>1.649052844175372</v>
       </c>
       <c r="C13">
-        <v>0.2919252055906441</v>
+        <v>0.292273250646474</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3341387066771517</v>
+        <v>0.3344377171365522</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2738839350237896</v>
+        <v>0.2342018732907505</v>
       </c>
       <c r="H13">
-        <v>0.1183194548060271</v>
+        <v>0.1183911244409046</v>
       </c>
       <c r="I13">
-        <v>0.001410225835182466</v>
+        <v>0.001767313152419625</v>
       </c>
       <c r="J13">
-        <v>0.2665156160395554</v>
+        <v>0.2185258180850962</v>
       </c>
       <c r="K13">
-        <v>0.2147067019352988</v>
+        <v>0.175527704632378</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09531285870533823</v>
       </c>
       <c r="M13">
-        <v>1.827698607113803</v>
+        <v>0.04560663176067159</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.834028271076392</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.631346266452681</v>
+        <v>1.633448966198301</v>
       </c>
       <c r="C14">
-        <v>0.2717401117263734</v>
+        <v>0.2679438562694969</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1555873090786832</v>
+        <v>0.1559292048516951</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.212524949767861</v>
+        <v>0.1838119669780696</v>
       </c>
       <c r="H14">
-        <v>0.1666889308341268</v>
+        <v>0.1667964958630819</v>
       </c>
       <c r="I14">
-        <v>0.001410670991019991</v>
+        <v>0.001742747328099981</v>
       </c>
       <c r="J14">
-        <v>0.2348128749306468</v>
+        <v>0.213307288154752</v>
       </c>
       <c r="K14">
-        <v>0.1913177906635894</v>
+        <v>0.166868447380625</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09307414440260245</v>
       </c>
       <c r="M14">
-        <v>1.780545970244106</v>
+        <v>0.04081047099374402</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.783601430333846</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.615709280622013</v>
+        <v>1.618444583877789</v>
       </c>
       <c r="C15">
-        <v>0.2656493287034323</v>
+        <v>0.2613525512960138</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1210269851913282</v>
+        <v>0.1213884024062146</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1996380850454429</v>
+        <v>0.1725085118377478</v>
       </c>
       <c r="H15">
-        <v>0.1788770206214565</v>
+        <v>0.1789997144125692</v>
       </c>
       <c r="I15">
-        <v>0.001521325160044107</v>
+        <v>0.001857483441213503</v>
       </c>
       <c r="J15">
-        <v>0.2284873126968279</v>
+        <v>0.213877540715508</v>
       </c>
       <c r="K15">
-        <v>0.187566124378983</v>
+        <v>0.1664062961419113</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09299802680670211</v>
       </c>
       <c r="M15">
-        <v>1.758010411918576</v>
+        <v>0.04026376898499517</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.760821774999613</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.513710795518477</v>
+        <v>1.514333868735292</v>
       </c>
       <c r="C16">
-        <v>0.2500017456461734</v>
+        <v>0.2499713538908566</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1179314090250188</v>
+        <v>0.1185295621188054</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.2083970039242473</v>
+        <v>0.1756262459673188</v>
       </c>
       <c r="H16">
-        <v>0.1649525396933882</v>
+        <v>0.1651324356882355</v>
       </c>
       <c r="I16">
-        <v>0.001693266622607936</v>
+        <v>0.001923248230391472</v>
       </c>
       <c r="J16">
-        <v>0.2373417127801929</v>
+        <v>0.2344168137646889</v>
       </c>
       <c r="K16">
-        <v>0.1977565313533125</v>
+        <v>0.1781394282187883</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09638392349943314</v>
       </c>
       <c r="M16">
-        <v>1.649003633416214</v>
+        <v>0.0443942135069948</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.656857743520959</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.445811545346515</v>
+        <v>1.443543744440007</v>
       </c>
       <c r="C17">
-        <v>0.2486270315389305</v>
+        <v>0.2533603839243312</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1967477704152785</v>
+        <v>0.1976419173568544</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.2449645388445489</v>
+        <v>0.2023254010220512</v>
       </c>
       <c r="H17">
-        <v>0.1267169719611871</v>
+        <v>0.1269199262113432</v>
       </c>
       <c r="I17">
-        <v>0.001869636274303588</v>
+        <v>0.002025831022214319</v>
       </c>
       <c r="J17">
-        <v>0.259776200002328</v>
+        <v>0.2585346801648569</v>
       </c>
       <c r="K17">
-        <v>0.2164354677717082</v>
+        <v>0.1926451507461993</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1012380856717412</v>
       </c>
       <c r="M17">
-        <v>1.590537977719237</v>
+        <v>0.04981170210437558</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.603147151848049</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.400531406075089</v>
+        <v>1.393585980121003</v>
       </c>
       <c r="C18">
-        <v>0.2586716037349106</v>
+        <v>0.2707411345875244</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4169965761323411</v>
+        <v>0.4183486177541056</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.324943978430916</v>
+        <v>0.2608449938540289</v>
       </c>
       <c r="H18">
-        <v>0.07419877400752739</v>
+        <v>0.07442211806224464</v>
       </c>
       <c r="I18">
-        <v>0.001677043538927947</v>
+        <v>0.001769245022019916</v>
       </c>
       <c r="J18">
-        <v>0.3038988283633586</v>
+        <v>0.2952272047176407</v>
       </c>
       <c r="K18">
-        <v>0.2539831382146218</v>
+        <v>0.2179690432088091</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1104946645845883</v>
       </c>
       <c r="M18">
-        <v>1.567861973921254</v>
+        <v>0.05933945421246634</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.586786956511901</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.375332597798206</v>
+        <v>1.362572185867521</v>
       </c>
       <c r="C19">
-        <v>0.2803756458105227</v>
+        <v>0.3021067604447865</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8311128250394404</v>
+        <v>0.8329603388620086</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.4491569803315514</v>
+        <v>0.3498151612340195</v>
       </c>
       <c r="H19">
-        <v>0.03030618253777817</v>
+        <v>0.03055266889342079</v>
       </c>
       <c r="I19">
-        <v>0.001718929000419145</v>
+        <v>0.001884576245039682</v>
       </c>
       <c r="J19">
-        <v>0.3691272136598229</v>
+        <v>0.344132830491489</v>
       </c>
       <c r="K19">
-        <v>0.3138623851866278</v>
+        <v>0.2560176781424843</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1246549502644267</v>
       </c>
       <c r="M19">
-        <v>1.578051150272017</v>
+        <v>0.07381009807755312</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.604250662419702</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.410380549420267</v>
+        <v>1.387975874310399</v>
       </c>
       <c r="C20">
-        <v>0.3303240803819847</v>
+        <v>0.368369500084782</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.77056277081067</v>
+        <v>1.772254010739303</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.7006308090576709</v>
+        <v>0.5285095884846669</v>
       </c>
       <c r="H20">
-        <v>0.009242343885433879</v>
+        <v>0.009446511582489325</v>
       </c>
       <c r="I20">
-        <v>0.001605285617968022</v>
+        <v>0.001967218948504268</v>
       </c>
       <c r="J20">
-        <v>0.4950902196248563</v>
+        <v>0.4176187716529256</v>
       </c>
       <c r="K20">
-        <v>0.4373699337676555</v>
+        <v>0.3267893408684266</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1494842163491725</v>
       </c>
       <c r="M20">
-        <v>1.677061630681749</v>
+        <v>0.1030280757051685</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.713690217616545</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.586691899889814</v>
+        <v>1.564521511125264</v>
       </c>
       <c r="C21">
-        <v>0.3756245104628135</v>
+        <v>0.408556913146441</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.086799656136449</v>
+        <v>2.085980270548475</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7686142341588891</v>
+        <v>0.6033273664590126</v>
       </c>
       <c r="H21">
-        <v>0.01386686677935645</v>
+        <v>0.0137595750699363</v>
       </c>
       <c r="I21">
-        <v>0.001998616160300948</v>
+        <v>0.002428182440161741</v>
       </c>
       <c r="J21">
-        <v>0.5212449107455228</v>
+        <v>0.3294242910347549</v>
       </c>
       <c r="K21">
-        <v>0.4582180398200819</v>
+        <v>0.3064953317419707</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1378811770813311</v>
       </c>
       <c r="M21">
-        <v>1.891532013255699</v>
+        <v>0.1019162102273796</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.921664684077939</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.704132772986696</v>
+        <v>1.682872016591404</v>
       </c>
       <c r="C22">
-        <v>0.4019962940375308</v>
+        <v>0.4298787299474611</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.244519485083671</v>
+        <v>2.241827677235406</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.8069494289045593</v>
+        <v>0.6529904189794991</v>
       </c>
       <c r="H22">
-        <v>0.01707658191830319</v>
+        <v>0.0167079662794376</v>
       </c>
       <c r="I22">
-        <v>0.002332959217978825</v>
+        <v>0.00260986197980273</v>
       </c>
       <c r="J22">
-        <v>0.5353164134464379</v>
+        <v>0.2771602321558717</v>
       </c>
       <c r="K22">
-        <v>0.4692627730768066</v>
+        <v>0.2909080560663853</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.129923334821795</v>
       </c>
       <c r="M22">
-        <v>2.029179822646171</v>
+        <v>0.100261164872876</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.053597327531065</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.642556877492581</v>
+        <v>1.619804086470481</v>
       </c>
       <c r="C23">
-        <v>0.3862194122388303</v>
+        <v>0.4185531320596283</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.160307739325802</v>
+        <v>2.15872131931792</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7924677920777867</v>
+        <v>0.6264644720943693</v>
       </c>
       <c r="H23">
-        <v>0.01533760211104274</v>
+        <v>0.01512525232228878</v>
       </c>
       <c r="I23">
-        <v>0.001825814032460293</v>
+        <v>0.002138000879206459</v>
       </c>
       <c r="J23">
-        <v>0.5308750724469746</v>
+        <v>0.3141988082086726</v>
       </c>
       <c r="K23">
-        <v>0.4671288730065513</v>
+        <v>0.3040575459952528</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1357066177819526</v>
       </c>
       <c r="M23">
-        <v>1.954369400192576</v>
+        <v>0.1032023056063949</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.983390648532094</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.407973568464371</v>
+        <v>1.384731693695073</v>
       </c>
       <c r="C24">
-        <v>0.3300105446868429</v>
+        <v>0.3694066637325477</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.843534918484565</v>
+        <v>1.845220731709375</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7294863739632973</v>
+        <v>0.5490606575559269</v>
       </c>
       <c r="H24">
-        <v>0.009496063367107566</v>
+        <v>0.009698037310980817</v>
       </c>
       <c r="I24">
-        <v>0.001116216793826119</v>
+        <v>0.001384228683883215</v>
       </c>
       <c r="J24">
-        <v>0.5099119063045947</v>
+        <v>0.4289943666347256</v>
       </c>
       <c r="K24">
-        <v>0.4536322522698839</v>
+        <v>0.3374865269115226</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1534277197208667</v>
       </c>
       <c r="M24">
-        <v>1.674452385696981</v>
+        <v>0.1071213979086458</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.712089307256036</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.155591039523898</v>
+        <v>1.140447279432976</v>
       </c>
       <c r="C25">
-        <v>0.2707948424725402</v>
+        <v>0.2999639789558444</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.505729372511766</v>
+        <v>1.509129370410704</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6648833740425601</v>
+        <v>0.5157945859634907</v>
       </c>
       <c r="H25">
-        <v>0.004614782762429881</v>
+        <v>0.004949951389995322</v>
       </c>
       <c r="I25">
-        <v>0.001797006827927383</v>
+        <v>0.001592644049106973</v>
       </c>
       <c r="J25">
-        <v>0.4891108761001988</v>
+        <v>0.4317268212582519</v>
       </c>
       <c r="K25">
-        <v>0.4406165766244605</v>
+        <v>0.3449482253477072</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1633031659431161</v>
       </c>
       <c r="M25">
-        <v>1.374639659421348</v>
+        <v>0.1010387279892271</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.405936241662033</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
